--- a/predictions полгода до/Прогнозы_Holt-Winters_AdditMul.xlsx
+++ b/predictions полгода до/Прогнозы_Holt-Winters_AdditMul.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="2">
@@ -489,40 +489,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>85461666701.07812</v>
+        <v>20091633.95522319</v>
       </c>
       <c r="C2" t="n">
-        <v>56165259551.50469</v>
+        <v>19687826.15612497</v>
       </c>
       <c r="D2" t="n">
-        <v>20621462084.7612</v>
+        <v>19957273.12014269</v>
       </c>
       <c r="E2" t="n">
-        <v>8899224.857828148</v>
+        <v>21411727.84690586</v>
       </c>
       <c r="F2" t="n">
-        <v>1321009850.437109</v>
+        <v>22706682.04551959</v>
       </c>
       <c r="G2" t="n">
-        <v>10153324.37165294</v>
+        <v>15904309.69409188</v>
       </c>
       <c r="H2" t="n">
-        <v>121261362974.5806</v>
+        <v>19887656.10587151</v>
       </c>
       <c r="I2" t="n">
-        <v>193328223940.1097</v>
+        <v>23070732.22621581</v>
       </c>
       <c r="J2" t="n">
-        <v>10403432.93849133</v>
+        <v>21450945.96541673</v>
       </c>
       <c r="K2" t="n">
-        <v>9684688.67774233</v>
+        <v>21122362.61692755</v>
       </c>
       <c r="L2" t="n">
-        <v>9558112.46654091</v>
+        <v>19944324.66382753</v>
       </c>
       <c r="M2" t="n">
-        <v>28006696057.38319</v>
+        <v>19445064.70518726</v>
       </c>
     </row>
     <row r="3">
@@ -532,3222 +532,2104 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9605571.769516284</v>
+        <v>7727527.347333557</v>
       </c>
       <c r="C3" t="n">
-        <v>9710353.344487904</v>
+        <v>4494195217714.844</v>
       </c>
       <c r="D3" t="n">
-        <v>5255773382127.604</v>
+        <v>20275535.85765805</v>
       </c>
       <c r="E3" t="n">
-        <v>26955685.46519355</v>
+        <v>13246161.77351335</v>
       </c>
       <c r="F3" t="n">
-        <v>17943263.57411816</v>
+        <v>17194968.50598555</v>
       </c>
       <c r="G3" t="n">
-        <v>23144317.65885074</v>
+        <v>9493725.295746354</v>
       </c>
       <c r="H3" t="n">
-        <v>13401356.16392988</v>
+        <v>11355391.32757673</v>
       </c>
       <c r="I3" t="n">
-        <v>15791130.93007026</v>
+        <v>23434293.25293095</v>
       </c>
       <c r="J3" t="n">
-        <v>30042183.8677319</v>
+        <v>12824794.56343826</v>
       </c>
       <c r="K3" t="n">
-        <v>17547740.64251482</v>
+        <v>16196632.61330699</v>
       </c>
       <c r="L3" t="n">
-        <v>21663667.90529887</v>
+        <v>12756121.02381373</v>
       </c>
       <c r="M3" t="n">
-        <v>19759966.41915708</v>
+        <v>12849914.52569545</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4983308.77770572</v>
+        <v>3506662.114590559</v>
       </c>
       <c r="C4" t="n">
-        <v>1060530.3069063</v>
+        <v>13375044.12757553</v>
       </c>
       <c r="D4" t="n">
-        <v>3182325.273770665</v>
+        <v>23392540.41185915</v>
       </c>
       <c r="E4" t="n">
-        <v>5171893.545625221</v>
+        <v>30925671.81503901</v>
       </c>
       <c r="F4" t="n">
-        <v>5596294.164018309</v>
+        <v>45091073.68272096</v>
       </c>
       <c r="G4" t="n">
-        <v>7600115.219314065</v>
+        <v>36651282.78597442</v>
       </c>
       <c r="H4" t="n">
-        <v>5659258.093347076</v>
+        <v>812781594.2981969</v>
       </c>
       <c r="I4" t="n">
-        <v>9327732.608572664</v>
+        <v>41484205.69930972</v>
       </c>
       <c r="J4" t="n">
-        <v>5392089.253251428</v>
+        <v>83552792.70716254</v>
       </c>
       <c r="K4" t="n">
-        <v>7906836.166763309</v>
+        <v>75127102.22565778</v>
       </c>
       <c r="L4" t="n">
-        <v>8539130.857260009</v>
+        <v>73106297.6242771</v>
       </c>
       <c r="M4" t="n">
-        <v>7917943.680449099</v>
+        <v>70446728.71767488</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3960935.222555735</v>
+        <v>22643559.22901293</v>
       </c>
       <c r="C5" t="n">
-        <v>5570135.22537526</v>
+        <v>25245590.82205776</v>
       </c>
       <c r="D5" t="n">
-        <v>7172662.050813877</v>
+        <v>25073599.71943979</v>
       </c>
       <c r="E5" t="n">
-        <v>5910466.369180075</v>
+        <v>29643319.76803613</v>
       </c>
       <c r="F5" t="n">
-        <v>6888292.792262747</v>
+        <v>53883183.65359294</v>
       </c>
       <c r="G5" t="n">
-        <v>7989369.837502383</v>
+        <v>6997740.642530772</v>
       </c>
       <c r="H5" t="n">
-        <v>13502852.53799055</v>
+        <v>33014657.00419241</v>
       </c>
       <c r="I5" t="n">
-        <v>15484541.61523084</v>
+        <v>35113687.57615852</v>
       </c>
       <c r="J5" t="n">
-        <v>16811243.10889554</v>
+        <v>30857518.72918926</v>
       </c>
       <c r="K5" t="n">
-        <v>7245164960.208659</v>
+        <v>29390409.85783602</v>
       </c>
       <c r="L5" t="n">
-        <v>20386660.23616916</v>
+        <v>32934541.68809881</v>
       </c>
       <c r="M5" t="n">
-        <v>21616977.68140131</v>
+        <v>31803768.88023965</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9100363.679963974</v>
+        <v>2090181.385040706</v>
       </c>
       <c r="C6" t="n">
-        <v>9094592.320207473</v>
+        <v>2967046.194775772</v>
       </c>
       <c r="D6" t="n">
-        <v>9268490.854106283</v>
+        <v>1696736.084577185</v>
       </c>
       <c r="E6" t="n">
-        <v>11936047.45060202</v>
+        <v>3287209.191321428</v>
       </c>
       <c r="F6" t="n">
-        <v>12024516.76760377</v>
+        <v>2103469.274463909</v>
       </c>
       <c r="G6" t="n">
-        <v>24903547.96775005</v>
+        <v>1989605.24459767</v>
       </c>
       <c r="H6" t="n">
-        <v>959788.5415883961</v>
+        <v>3928897.025600314</v>
       </c>
       <c r="I6" t="n">
-        <v>17015470.2278218</v>
+        <v>4471165.227549466</v>
       </c>
       <c r="J6" t="n">
-        <v>11718617.30557296</v>
+        <v>3429876.309550765</v>
       </c>
       <c r="K6" t="n">
-        <v>10460214.42453732</v>
+        <v>3841282.559259505</v>
       </c>
       <c r="L6" t="n">
-        <v>12355161.12760942</v>
+        <v>2621497.578472216</v>
       </c>
       <c r="M6" t="n">
-        <v>11845379.27747164</v>
+        <v>3467104.385434089</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1715618.221593841</v>
+        <v>6852027.329877896</v>
       </c>
       <c r="C7" t="n">
-        <v>2020542.876663716</v>
+        <v>5647608.159512601</v>
       </c>
       <c r="D7" t="n">
-        <v>2918914.446749792</v>
+        <v>10392524.89460376</v>
       </c>
       <c r="E7" t="n">
-        <v>2069562.590726926</v>
+        <v>4108892.487761705</v>
       </c>
       <c r="F7" t="n">
-        <v>2647911.770298122</v>
+        <v>7100954.357791225</v>
       </c>
       <c r="G7" t="n">
-        <v>5167370.931678025</v>
+        <v>4497730.860361326</v>
       </c>
       <c r="H7" t="n">
-        <v>744677.0319490887</v>
+        <v>16564242.1532813</v>
       </c>
       <c r="I7" t="n">
-        <v>2601166.324750458</v>
+        <v>23678344.50242376</v>
       </c>
       <c r="J7" t="n">
-        <v>3039328.916543026</v>
+        <v>15985500.97615754</v>
       </c>
       <c r="K7" t="n">
-        <v>3722647.188722219</v>
+        <v>10252097.64889642</v>
       </c>
       <c r="L7" t="n">
-        <v>1959466.411365052</v>
+        <v>10029311.24603845</v>
       </c>
       <c r="M7" t="n">
-        <v>3154424.859888878</v>
+        <v>9046788.769528935</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2085117.081070658</v>
+        <v>15721498.49858623</v>
       </c>
       <c r="C8" t="n">
-        <v>1896993.731370511</v>
+        <v>19176907.42347272</v>
       </c>
       <c r="D8" t="n">
-        <v>1871379.247794269</v>
+        <v>19114026.69057254</v>
       </c>
       <c r="E8" t="n">
-        <v>2347754.504751253</v>
+        <v>21236986.31872113</v>
       </c>
       <c r="F8" t="n">
-        <v>3730786.251055487</v>
+        <v>28571264.08657174</v>
       </c>
       <c r="G8" t="n">
-        <v>2214390.025320743</v>
+        <v>13821246.0064631</v>
       </c>
       <c r="H8" t="n">
-        <v>203392.7885789257</v>
+        <v>20863253.41688509</v>
       </c>
       <c r="I8" t="n">
-        <v>1479024.104331781</v>
+        <v>25472755.1629924</v>
       </c>
       <c r="J8" t="n">
-        <v>1696129.506588128</v>
+        <v>23031019.4195855</v>
       </c>
       <c r="K8" t="n">
-        <v>1458732.975925846</v>
+        <v>20308543.54723056</v>
       </c>
       <c r="L8" t="n">
-        <v>961665.2323802316</v>
+        <v>22218057.06951109</v>
       </c>
       <c r="M8" t="n">
-        <v>1707307.36422802</v>
+        <v>22064328.1504465</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5631311206.931925</v>
+        <v>29275909.9993158</v>
       </c>
       <c r="C9" t="n">
-        <v>12946649.41184566</v>
+        <v>24983966.84593304</v>
       </c>
       <c r="D9" t="n">
-        <v>6412532.076165033</v>
+        <v>25457738.17126333</v>
       </c>
       <c r="E9" t="n">
-        <v>3166060.166123855</v>
+        <v>26074132.79274274</v>
       </c>
       <c r="F9" t="n">
-        <v>13312282.16455195</v>
+        <v>42415413.38682187</v>
       </c>
       <c r="G9" t="n">
-        <v>10362439.68977924</v>
+        <v>25086906.66785833</v>
       </c>
       <c r="H9" t="n">
-        <v>203473352927.7485</v>
+        <v>30682355.7451804</v>
       </c>
       <c r="I9" t="n">
-        <v>16712221499324.36</v>
+        <v>31545236.32343211</v>
       </c>
       <c r="J9" t="n">
-        <v>974118404187.0861</v>
+        <v>38455438.75481054</v>
       </c>
       <c r="K9" t="n">
-        <v>233661493370.1066</v>
+        <v>39561729.89531825</v>
       </c>
       <c r="L9" t="n">
-        <v>4966177.191451201</v>
+        <v>48981999.71427674</v>
       </c>
       <c r="M9" t="n">
-        <v>20482755.11814264</v>
+        <v>35025306.13221353</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4226263.308652676</v>
+        <v>22884398.30942715</v>
       </c>
       <c r="C10" t="n">
-        <v>5546304.567505353</v>
+        <v>29334057.27547618</v>
       </c>
       <c r="D10" t="n">
-        <v>5986155.258434518</v>
+        <v>39054948.35386678</v>
       </c>
       <c r="E10" t="n">
-        <v>4385305.554214721</v>
+        <v>38027675.89645981</v>
       </c>
       <c r="F10" t="n">
-        <v>5378266.066269498</v>
+        <v>49122049.61997958</v>
       </c>
       <c r="G10" t="n">
-        <v>9985264.493116582</v>
+        <v>2564471531.209442</v>
       </c>
       <c r="H10" t="n">
-        <v>1687980.525057625</v>
+        <v>105065786.7636237</v>
       </c>
       <c r="I10" t="n">
-        <v>5258265.634227291</v>
+        <v>142425520.2780638</v>
       </c>
       <c r="J10" t="n">
-        <v>8656805.617459778</v>
+        <v>148773454.4832304</v>
       </c>
       <c r="K10" t="n">
-        <v>5795111.447036588</v>
+        <v>117864526.7031718</v>
       </c>
       <c r="L10" t="n">
-        <v>5949570.30945319</v>
+        <v>141315483.3717309</v>
       </c>
       <c r="M10" t="n">
-        <v>5912611.839427195</v>
+        <v>101406179.2808279</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2773124.725493611</v>
+        <v>15872210.74545723</v>
       </c>
       <c r="C11" t="n">
-        <v>17085203.46730748</v>
+        <v>19212989.06949848</v>
       </c>
       <c r="D11" t="n">
-        <v>5188251.899479732</v>
+        <v>22552942.10618598</v>
       </c>
       <c r="E11" t="n">
-        <v>1927807.786827783</v>
+        <v>504708653.2448089</v>
       </c>
       <c r="F11" t="n">
-        <v>4740527.440964531</v>
+        <v>39984859.79863246</v>
       </c>
       <c r="G11" t="n">
-        <v>2407199.704217787</v>
+        <v>14956014.60184492</v>
       </c>
       <c r="H11" t="n">
-        <v>2662427.594251855</v>
+        <v>17123702.39647325</v>
       </c>
       <c r="I11" t="n">
-        <v>2864896.15710378</v>
+        <v>17695533.65416425</v>
       </c>
       <c r="J11" t="n">
-        <v>2901053.310797786</v>
+        <v>18798017.80734032</v>
       </c>
       <c r="K11" t="n">
-        <v>2343812.341687994</v>
+        <v>11637026.63907017</v>
       </c>
       <c r="L11" t="n">
-        <v>3199289.448434754</v>
+        <v>12169743.51857986</v>
       </c>
       <c r="M11" t="n">
-        <v>1992471.585583284</v>
+        <v>15385102.15920537</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>158708.1566357707</v>
+        <v>41320529.9704909</v>
       </c>
       <c r="C12" t="n">
-        <v>53387.60443599559</v>
+        <v>46800175.41062579</v>
       </c>
       <c r="D12" t="n">
-        <v>-3285.717095411429</v>
+        <v>49895861.26929149</v>
       </c>
       <c r="E12" t="n">
-        <v>-62168.16083867328</v>
+        <v>48808688.48998812</v>
       </c>
       <c r="F12" t="n">
-        <v>-150737.6570037831</v>
+        <v>40335400.34851107</v>
       </c>
       <c r="G12" t="n">
-        <v>-208790.1900437961</v>
+        <v>38574336.30708861</v>
       </c>
       <c r="H12" t="n">
-        <v>-228367.0468167759</v>
+        <v>46351942.91924444</v>
       </c>
       <c r="I12" t="n">
-        <v>-532135.6488656193</v>
+        <v>41115707.86122519</v>
       </c>
       <c r="J12" t="n">
-        <v>-663623.9739962127</v>
+        <v>39907152.75676115</v>
       </c>
       <c r="K12" t="n">
-        <v>-533485.79457686</v>
+        <v>35156230.25961296</v>
       </c>
       <c r="L12" t="n">
-        <v>-489382.2331296849</v>
+        <v>44733556.92996975</v>
       </c>
       <c r="M12" t="n">
-        <v>-517255.688370222</v>
+        <v>54860112.96965647</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>681787541450.3639</v>
+        <v>48542584.29252409</v>
       </c>
       <c r="C13" t="n">
-        <v>2935795.786700995</v>
+        <v>48143190.19106625</v>
       </c>
       <c r="D13" t="n">
-        <v>1332528.580703006</v>
+        <v>51723737.66080541</v>
       </c>
       <c r="E13" t="n">
-        <v>3948051.423598065</v>
+        <v>44544447.06396367</v>
       </c>
       <c r="F13" t="n">
-        <v>1087557.164833682</v>
+        <v>41462038.95152809</v>
       </c>
       <c r="G13" t="n">
-        <v>1938677.112971438</v>
+        <v>39142073.5415556</v>
       </c>
       <c r="H13" t="n">
-        <v>1333493.818942998</v>
+        <v>43473953.21862822</v>
       </c>
       <c r="I13" t="n">
-        <v>1478457.754747128</v>
+        <v>39721954.23422651</v>
       </c>
       <c r="J13" t="n">
-        <v>3938134.446284362</v>
+        <v>41389207.38956936</v>
       </c>
       <c r="K13" t="n">
-        <v>2387585.62320422</v>
+        <v>35012855.19580498</v>
       </c>
       <c r="L13" t="n">
-        <v>4785998.958447368</v>
+        <v>42672416.45870576</v>
       </c>
       <c r="M13" t="n">
-        <v>2700882.499497464</v>
+        <v>51809282.09576247</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>78689.18430812226</v>
+        <v>2136607.096034291</v>
       </c>
       <c r="C14" t="n">
-        <v>70646.78153659734</v>
+        <v>2865251.589148495</v>
       </c>
       <c r="D14" t="n">
-        <v>83052.65434885908</v>
+        <v>3637060.721073458</v>
       </c>
       <c r="E14" t="n">
-        <v>236626.5363245049</v>
+        <v>4398018.142668486</v>
       </c>
       <c r="F14" t="n">
-        <v>89664.15698659919</v>
+        <v>5157685.700538105</v>
       </c>
       <c r="G14" t="n">
-        <v>171137.1593915063</v>
+        <v>5917547.79132594</v>
       </c>
       <c r="H14" t="n">
-        <v>308392.253557444</v>
+        <v>7893621852.734649</v>
       </c>
       <c r="I14" t="n">
-        <v>923618.0854389534</v>
+        <v>11303867.71343283</v>
       </c>
       <c r="J14" t="n">
-        <v>1528019.386641351</v>
+        <v>12280330.76829383</v>
       </c>
       <c r="K14" t="n">
-        <v>1212525.905775286</v>
+        <v>13420089.10314579</v>
       </c>
       <c r="L14" t="n">
-        <v>856618.7530573658</v>
+        <v>14886591.66946647</v>
       </c>
       <c r="M14" t="n">
-        <v>879121.1238214148</v>
+        <v>15715333.81964717</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1283884.783721082</v>
+        <v>4573206.821479921</v>
       </c>
       <c r="C15" t="n">
-        <v>684618.1195837633</v>
+        <v>3191723.285131826</v>
       </c>
       <c r="D15" t="n">
-        <v>679345.3433504335</v>
+        <v>3156259.348791182</v>
       </c>
       <c r="E15" t="n">
-        <v>743745.1268239005</v>
+        <v>4821664.960339692</v>
       </c>
       <c r="F15" t="n">
-        <v>686570.7772759985</v>
+        <v>3778834.775770079</v>
       </c>
       <c r="G15" t="n">
-        <v>929156.7482807771</v>
+        <v>4425629.158605829</v>
       </c>
       <c r="H15" t="n">
-        <v>585986.0753837888</v>
+        <v>6941453.021986355</v>
       </c>
       <c r="I15" t="n">
-        <v>585514.9896875424</v>
+        <v>6726556.789966409</v>
       </c>
       <c r="J15" t="n">
-        <v>585136.1529231224</v>
+        <v>9714979.573545823</v>
       </c>
       <c r="K15" t="n">
-        <v>584777.941915797</v>
+        <v>6152464.767792917</v>
       </c>
       <c r="L15" t="n">
-        <v>584387.6896821501</v>
+        <v>5405529.792267508</v>
       </c>
       <c r="M15" t="n">
-        <v>2470010.037934022</v>
+        <v>2673744.956441631</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2242480.969828869</v>
+        <v>8143610.53153851</v>
       </c>
       <c r="C16" t="n">
-        <v>1557316.073717244</v>
+        <v>15440526.09489735</v>
       </c>
       <c r="D16" t="n">
-        <v>1629809.759944608</v>
+        <v>14016068.59121765</v>
       </c>
       <c r="E16" t="n">
-        <v>1868655.384114957</v>
+        <v>16817005.9430452</v>
       </c>
       <c r="F16" t="n">
-        <v>1691500.012522571</v>
+        <v>17764099.68505056</v>
       </c>
       <c r="G16" t="n">
-        <v>2610112.759385913</v>
+        <v>15600803.87145172</v>
       </c>
       <c r="H16" t="n">
-        <v>1895130.469443914</v>
+        <v>13689368.80901106</v>
       </c>
       <c r="I16" t="n">
-        <v>2015126.653894247</v>
+        <v>17810143.59900164</v>
       </c>
       <c r="J16" t="n">
-        <v>2134621.734544696</v>
+        <v>17665561.82261563</v>
       </c>
       <c r="K16" t="n">
-        <v>2254352.181682661</v>
+        <v>14712835.22559306</v>
       </c>
       <c r="L16" t="n">
-        <v>2374189.480728538</v>
+        <v>15733894.3548721</v>
       </c>
       <c r="M16" t="n">
-        <v>2795928.18029914</v>
+        <v>15152877.55783596</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>694531726.8666722</v>
+        <v>5015953.110046334</v>
       </c>
       <c r="C17" t="n">
-        <v>15406865.02158018</v>
+        <v>6245161.482407647</v>
       </c>
       <c r="D17" t="n">
-        <v>15872951.72356729</v>
+        <v>6100253.187215026</v>
       </c>
       <c r="E17" t="n">
-        <v>13586850.93504783</v>
+        <v>4830865.42046025</v>
       </c>
       <c r="F17" t="n">
-        <v>14446168.16315404</v>
+        <v>3898689.007888515</v>
       </c>
       <c r="G17" t="n">
-        <v>14624242.91297677</v>
+        <v>2624335.654174033</v>
       </c>
       <c r="H17" t="n">
-        <v>13488996.09476605</v>
+        <v>4596833.531406669</v>
       </c>
       <c r="I17" t="n">
-        <v>14459220.70233279</v>
+        <v>3064478.330699484</v>
       </c>
       <c r="J17" t="n">
-        <v>15423373.44807328</v>
+        <v>2962811.88683343</v>
       </c>
       <c r="K17" t="n">
-        <v>16389056.63433046</v>
+        <v>3490352.437533217</v>
       </c>
       <c r="L17" t="n">
-        <v>17357422.10832916</v>
+        <v>5577535.631761506</v>
       </c>
       <c r="M17" t="n">
-        <v>18323367.58036507</v>
+        <v>4852769.529486555</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>893370.265485024</v>
+        <v>3629749.079632849</v>
       </c>
       <c r="C18" t="n">
-        <v>576735.4898097267</v>
+        <v>3940148.287625825</v>
       </c>
       <c r="D18" t="n">
-        <v>1287845.599056738</v>
+        <v>3234200.319989755</v>
       </c>
       <c r="E18" t="n">
-        <v>909936.4574413274</v>
+        <v>3043779.272200727</v>
       </c>
       <c r="F18" t="n">
-        <v>1409313.70769985</v>
+        <v>4027954.246775155</v>
       </c>
       <c r="G18" t="n">
-        <v>4335493.268134745</v>
+        <v>3196705.488410178</v>
       </c>
       <c r="H18" t="n">
-        <v>828357.8767685021</v>
+        <v>4768124.084939236</v>
       </c>
       <c r="I18" t="n">
-        <v>1468635.379634208</v>
+        <v>4815065.192215938</v>
       </c>
       <c r="J18" t="n">
-        <v>1942057.422391139</v>
+        <v>3208304.052442691</v>
       </c>
       <c r="K18" t="n">
-        <v>1632735.308106836</v>
+        <v>4443892.053221244</v>
       </c>
       <c r="L18" t="n">
-        <v>1108285.196002454</v>
+        <v>5402401.182491446</v>
       </c>
       <c r="M18" t="n">
-        <v>1749200.680842962</v>
+        <v>3115055.716128709</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-25720.74059057725</v>
+        <v>6850846.293725899</v>
       </c>
       <c r="C19" t="n">
-        <v>-17772.74194771811</v>
+        <v>4534103.444604647</v>
       </c>
       <c r="D19" t="n">
-        <v>-95357.77545672836</v>
+        <v>6444506.650434878</v>
       </c>
       <c r="E19" t="n">
-        <v>-69203.7829388379</v>
+        <v>4915704.499265301</v>
       </c>
       <c r="F19" t="n">
-        <v>-49155.23186483654</v>
+        <v>6131620.397022692</v>
       </c>
       <c r="G19" t="n">
-        <v>-93087.339393316</v>
+        <v>3100401.018690412</v>
       </c>
       <c r="H19" t="n">
-        <v>-69984.19342511434</v>
+        <v>4316996.062161913</v>
       </c>
       <c r="I19" t="n">
-        <v>-121692.5161612485</v>
+        <v>5813817.107270661</v>
       </c>
       <c r="J19" t="n">
-        <v>-252118.4730107267</v>
+        <v>3695065.728616153</v>
       </c>
       <c r="K19" t="n">
-        <v>-114182.7113997382</v>
+        <v>3151695.909828791</v>
       </c>
       <c r="L19" t="n">
-        <v>-208213.3367462559</v>
+        <v>4726834.699464084</v>
       </c>
       <c r="M19" t="n">
-        <v>-87639.24605771428</v>
+        <v>6169389.023666486</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1775873.687369453</v>
+        <v>1838361.241136061</v>
       </c>
       <c r="C20" t="n">
-        <v>1910831.539781131</v>
+        <v>2511826.087837726</v>
       </c>
       <c r="D20" t="n">
-        <v>1894968.943554729</v>
+        <v>2817976.16887575</v>
       </c>
       <c r="E20" t="n">
-        <v>2051265.986834926</v>
+        <v>2979062.838232906</v>
       </c>
       <c r="F20" t="n">
-        <v>1959977.620913599</v>
+        <v>2028246.195870282</v>
       </c>
       <c r="G20" t="n">
-        <v>2286258.929500677</v>
+        <v>2073677.90396308</v>
       </c>
       <c r="H20" t="n">
-        <v>518220.9651865631</v>
+        <v>2823081.129692398</v>
       </c>
       <c r="I20" t="n">
-        <v>1366937.786214557</v>
+        <v>2801271.245188328</v>
       </c>
       <c r="J20" t="n">
-        <v>1764104.501062935</v>
+        <v>1950376.388230795</v>
       </c>
       <c r="K20" t="n">
-        <v>1808836.862221922</v>
+        <v>2249786.931554153</v>
       </c>
       <c r="L20" t="n">
-        <v>1479254.395477789</v>
+        <v>3229607.050229487</v>
       </c>
       <c r="M20" t="n">
-        <v>2016901.656566785</v>
+        <v>2309409.251378666</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1766140.446657759</v>
+        <v>3620789.91983403</v>
       </c>
       <c r="C21" t="n">
-        <v>886945.1321763919</v>
+        <v>3948538.44674957</v>
       </c>
       <c r="D21" t="n">
-        <v>929513.8813633304</v>
+        <v>5892131.949180541</v>
       </c>
       <c r="E21" t="n">
-        <v>2068503.162287702</v>
+        <v>5274617.730326157</v>
       </c>
       <c r="F21" t="n">
-        <v>1100829.307343303</v>
+        <v>5747103.189064983</v>
       </c>
       <c r="G21" t="n">
-        <v>993726.0971339996</v>
+        <v>4433510.708553929</v>
       </c>
       <c r="H21" t="n">
-        <v>1009361.037791665</v>
+        <v>3937912.870283503</v>
       </c>
       <c r="I21" t="n">
-        <v>1498165.353623859</v>
+        <v>3883995.982656667</v>
       </c>
       <c r="J21" t="n">
-        <v>1319138.097619166</v>
+        <v>4158448.541613084</v>
       </c>
       <c r="K21" t="n">
-        <v>2066226.821095756</v>
+        <v>4718163.571752056</v>
       </c>
       <c r="L21" t="n">
-        <v>1378439.748532884</v>
+        <v>5121300.156279982</v>
       </c>
       <c r="M21" t="n">
-        <v>1550204.220943705</v>
+        <v>3794414.966241612</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>311485.8923002396</v>
+        <v>9703341.265003296</v>
       </c>
       <c r="C22" t="n">
-        <v>253209.9626576684</v>
+        <v>12668419.09397738</v>
       </c>
       <c r="D22" t="n">
-        <v>253424.0672442732</v>
+        <v>15437426.49287588</v>
       </c>
       <c r="E22" t="n">
-        <v>6639343.583867057</v>
+        <v>14171269.36607374</v>
       </c>
       <c r="F22" t="n">
-        <v>640179.8242987688</v>
+        <v>14739986.62729324</v>
       </c>
       <c r="G22" t="n">
-        <v>979676.7123080172</v>
+        <v>9908307.708717477</v>
       </c>
       <c r="H22" t="n">
-        <v>896696.4271935481</v>
+        <v>14065244.85068945</v>
       </c>
       <c r="I22" t="n">
-        <v>716897.6355679487</v>
+        <v>11310331.25780911</v>
       </c>
       <c r="J22" t="n">
-        <v>926014.1921541379</v>
+        <v>13174586.55516525</v>
       </c>
       <c r="K22" t="n">
-        <v>595699.3910871076</v>
+        <v>9459475.4576449</v>
       </c>
       <c r="L22" t="n">
-        <v>452586.2163875105</v>
+        <v>12028675.28649693</v>
       </c>
       <c r="M22" t="n">
-        <v>436930.63437916</v>
+        <v>11395199.53968517</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-199.9633556005017</v>
+        <v>19777477.15618302</v>
       </c>
       <c r="C23" t="n">
-        <v>-453.3483362757303</v>
+        <v>15326667.42391552</v>
       </c>
       <c r="D23" t="n">
-        <v>-706.7567857219324</v>
+        <v>11354821.37276979</v>
       </c>
       <c r="E23" t="n">
-        <v>-1266.219095169859</v>
+        <v>11240691.15799596</v>
       </c>
       <c r="F23" t="n">
-        <v>-1389.20500453931</v>
+        <v>11134259.40764877</v>
       </c>
       <c r="G23" t="n">
-        <v>-10857.17271105807</v>
+        <v>5421449.735411415</v>
       </c>
       <c r="H23" t="n">
-        <v>-3441.836021855683</v>
+        <v>9639463.366025502</v>
       </c>
       <c r="I23" t="n">
-        <v>-9723.570405057431</v>
+        <v>9614201.421403099</v>
       </c>
       <c r="J23" t="n">
-        <v>-8958.894682206728</v>
+        <v>9529771.007927226</v>
       </c>
       <c r="K23" t="n">
-        <v>-3413.813719565913</v>
+        <v>6646279.672167087</v>
       </c>
       <c r="L23" t="n">
-        <v>-5986.791295838651</v>
+        <v>11363113.50570694</v>
       </c>
       <c r="M23" t="n">
-        <v>-2988.044480110003</v>
+        <v>11710787.4804001</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>14595586.69249475</v>
+        <v>7780343.309056079</v>
       </c>
       <c r="C24" t="n">
-        <v>10791400.93181911</v>
+        <v>11820050.70017732</v>
       </c>
       <c r="D24" t="n">
-        <v>13148079.36635094</v>
+        <v>10293690.78692212</v>
       </c>
       <c r="E24" t="n">
-        <v>10854684.50993832</v>
+        <v>10215300.80759388</v>
       </c>
       <c r="F24" t="n">
-        <v>11691339.47606981</v>
+        <v>15719863.42813354</v>
       </c>
       <c r="G24" t="n">
-        <v>16049710.74937018</v>
+        <v>6930409.242918016</v>
       </c>
       <c r="H24" t="n">
-        <v>8476702.378530541</v>
+        <v>11770853.5657858</v>
       </c>
       <c r="I24" t="n">
-        <v>13281664.7451127</v>
+        <v>11891800.51203782</v>
       </c>
       <c r="J24" t="n">
-        <v>16374004.17719042</v>
+        <v>13252329.13660811</v>
       </c>
       <c r="K24" t="n">
-        <v>13516011.86096161</v>
+        <v>8452935.813581947</v>
       </c>
       <c r="L24" t="n">
-        <v>12959582.96003185</v>
+        <v>10704012.57827551</v>
       </c>
       <c r="M24" t="n">
-        <v>12470261.18716524</v>
+        <v>11741634.86718071</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2524836.265040292</v>
+        <v>5055080.584384401</v>
       </c>
       <c r="C25" t="n">
-        <v>2623283.506275411</v>
+        <v>7250569.285179521</v>
       </c>
       <c r="D25" t="n">
-        <v>2322363.15942813</v>
+        <v>7019143.240868215</v>
       </c>
       <c r="E25" t="n">
-        <v>2963948.639493749</v>
+        <v>6428061.324935962</v>
       </c>
       <c r="F25" t="n">
-        <v>2969136.815993094</v>
+        <v>7759596.673969172</v>
       </c>
       <c r="G25" t="n">
-        <v>2782608.380251251</v>
+        <v>4631476.64262082</v>
       </c>
       <c r="H25" t="n">
-        <v>1427805.443423308</v>
+        <v>5582702.53911692</v>
       </c>
       <c r="I25" t="n">
-        <v>2366850.967407651</v>
+        <v>8129077.772586161</v>
       </c>
       <c r="J25" t="n">
-        <v>2636898.372295677</v>
+        <v>6155674.238970306</v>
       </c>
       <c r="K25" t="n">
-        <v>2540475.960566874</v>
+        <v>4161900.048294601</v>
       </c>
       <c r="L25" t="n">
-        <v>2145230.217305007</v>
+        <v>4845223.233590911</v>
       </c>
       <c r="M25" t="n">
-        <v>2876859.267428285</v>
+        <v>6534499.826257753</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9392034.688464092</v>
+        <v>12308952.84690501</v>
       </c>
       <c r="C26" t="n">
-        <v>10259696.11714224</v>
+        <v>12073935.77003396</v>
       </c>
       <c r="D26" t="n">
-        <v>7319103.145294234</v>
+        <v>11776187.74211864</v>
       </c>
       <c r="E26" t="n">
-        <v>7646622.808474156</v>
+        <v>10124651.95293834</v>
       </c>
       <c r="F26" t="n">
-        <v>7303023.418608697</v>
+        <v>13841382.37820382</v>
       </c>
       <c r="G26" t="n">
-        <v>9645181.350280372</v>
+        <v>9921473.982464759</v>
       </c>
       <c r="H26" t="n">
-        <v>4518922.866528097</v>
+        <v>13394095.97879389</v>
       </c>
       <c r="I26" t="n">
-        <v>5242418.692497008</v>
+        <v>13301965.3927986</v>
       </c>
       <c r="J26" t="n">
-        <v>8016730.404256615</v>
+        <v>9109825.968568046</v>
       </c>
       <c r="K26" t="n">
-        <v>13145848.00001744</v>
+        <v>9683262.925389934</v>
       </c>
       <c r="L26" t="n">
-        <v>14610620.5177719</v>
+        <v>10297597.93605101</v>
       </c>
       <c r="M26" t="n">
-        <v>19788643.29788617</v>
+        <v>11840941.81875809</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>14755755.44283827</v>
+        <v>3975796.830918082</v>
       </c>
       <c r="C27" t="n">
-        <v>15372953.63850103</v>
+        <v>3329440.25893008</v>
       </c>
       <c r="D27" t="n">
-        <v>15586055.21985455</v>
+        <v>3566055.409301744</v>
       </c>
       <c r="E27" t="n">
-        <v>15536974.09488597</v>
+        <v>2897203.983684905</v>
       </c>
       <c r="F27" t="n">
-        <v>16935214.82627547</v>
+        <v>3979974.076646179</v>
       </c>
       <c r="G27" t="n">
-        <v>30315900.21979469</v>
+        <v>2309308.370494334</v>
       </c>
       <c r="H27" t="n">
-        <v>15424222.11708463</v>
+        <v>3248902.839797793</v>
       </c>
       <c r="I27" t="n">
-        <v>24783568.27656383</v>
+        <v>3276050.498348062</v>
       </c>
       <c r="J27" t="n">
-        <v>20246365.22283524</v>
+        <v>2865365.761448122</v>
       </c>
       <c r="K27" t="n">
-        <v>23070332.37461046</v>
+        <v>2114028.473777326</v>
       </c>
       <c r="L27" t="n">
-        <v>16274241.0061115</v>
+        <v>2419689.383998546</v>
       </c>
       <c r="M27" t="n">
-        <v>17521882.95944134</v>
+        <v>4120025.73107441</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>9544021.726532869</v>
+        <v>9822347.615253314</v>
       </c>
       <c r="C28" t="n">
-        <v>8375621.532531886</v>
+        <v>7281917.061992995</v>
       </c>
       <c r="D28" t="n">
-        <v>8826849.164503805</v>
+        <v>6674785.225058748</v>
       </c>
       <c r="E28" t="n">
-        <v>10061783.23969257</v>
+        <v>9498057.895351514</v>
       </c>
       <c r="F28" t="n">
-        <v>8623913.167057833</v>
+        <v>14350784.25892653</v>
       </c>
       <c r="G28" t="n">
-        <v>10004816.13746066</v>
+        <v>8017828.745243244</v>
       </c>
       <c r="H28" t="n">
-        <v>492975929.0508734</v>
+        <v>12191627.08069983</v>
       </c>
       <c r="I28" t="n">
-        <v>18079131.57271557</v>
+        <v>9943559.059825798</v>
       </c>
       <c r="J28" t="n">
-        <v>22768356.04522381</v>
+        <v>12560359.44649169</v>
       </c>
       <c r="K28" t="n">
-        <v>22291375.83605359</v>
+        <v>7609601.799104816</v>
       </c>
       <c r="L28" t="n">
-        <v>16688345.08857832</v>
+        <v>11729623.12954607</v>
       </c>
       <c r="M28" t="n">
-        <v>19012324.3331891</v>
+        <v>17349508.10606061</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>22313450.03558254</v>
+        <v>2385849.284439244</v>
       </c>
       <c r="C29" t="n">
-        <v>24812850.95895014</v>
+        <v>2436933.878582801</v>
       </c>
       <c r="D29" t="n">
-        <v>32030637.57000736</v>
+        <v>2292387.962934735</v>
       </c>
       <c r="E29" t="n">
-        <v>39937444.74182385</v>
+        <v>3245252.019712325</v>
       </c>
       <c r="F29" t="n">
-        <v>602613773.8407152</v>
+        <v>3422823.41652241</v>
       </c>
       <c r="G29" t="n">
-        <v>47943934.09543717</v>
+        <v>2810391.555490849</v>
       </c>
       <c r="H29" t="n">
-        <v>35626222.38002533</v>
+        <v>3296899.305344523</v>
       </c>
       <c r="I29" t="n">
-        <v>37409680.65886107</v>
+        <v>3809742.839239553</v>
       </c>
       <c r="J29" t="n">
-        <v>39899215.55508607</v>
+        <v>2936209.737894045</v>
       </c>
       <c r="K29" t="n">
-        <v>45008860.47706723</v>
+        <v>2705696.623482849</v>
       </c>
       <c r="L29" t="n">
-        <v>29078364.78367409</v>
+        <v>3266031.944050961</v>
       </c>
       <c r="M29" t="n">
-        <v>31698649.77848015</v>
+        <v>3072257.755162928</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>54674384.06749362</v>
+        <v>2292316.058603807</v>
       </c>
       <c r="C30" t="n">
-        <v>45478147.46083932</v>
+        <v>1246965.263674949</v>
       </c>
       <c r="D30" t="n">
-        <v>51286786.05536254</v>
+        <v>996923.2473061013</v>
       </c>
       <c r="E30" t="n">
-        <v>54446243.11751479</v>
+        <v>1044862.746137269</v>
       </c>
       <c r="F30" t="n">
-        <v>53036073.04131363</v>
+        <v>1788601.556236022</v>
       </c>
       <c r="G30" t="n">
-        <v>43647236.50650121</v>
+        <v>1216217.642302967</v>
       </c>
       <c r="H30" t="n">
-        <v>43334573.57239003</v>
+        <v>879779.5412622273</v>
       </c>
       <c r="I30" t="n">
-        <v>49751194.36923623</v>
+        <v>659757.3500039456</v>
       </c>
       <c r="J30" t="n">
-        <v>43955209.70653564</v>
+        <v>1223816.162334702</v>
       </c>
       <c r="K30" t="n">
-        <v>42494927.60458764</v>
+        <v>881048.855678434</v>
       </c>
       <c r="L30" t="n">
-        <v>37290498.9368845</v>
+        <v>723629.568115155</v>
       </c>
       <c r="M30" t="n">
-        <v>47267695.50632003</v>
+        <v>996392.0722360085</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>49166748.83416925</v>
+        <v>501283.122112175</v>
       </c>
       <c r="C31" t="n">
-        <v>51335326.9576348</v>
+        <v>702408.4477846391</v>
       </c>
       <c r="D31" t="n">
-        <v>50949848.46080066</v>
+        <v>793734.3651597404</v>
       </c>
       <c r="E31" t="n">
-        <v>54778097.28398161</v>
+        <v>857443.4349388515</v>
       </c>
       <c r="F31" t="n">
-        <v>47207748.1290348</v>
+        <v>855630.7939916431</v>
       </c>
       <c r="G31" t="n">
-        <v>43971103.83646264</v>
+        <v>417381.4453394024</v>
       </c>
       <c r="H31" t="n">
-        <v>41711268.37757391</v>
+        <v>774502.0316960658</v>
       </c>
       <c r="I31" t="n">
-        <v>46166207.98160889</v>
+        <v>776905.1033994524</v>
       </c>
       <c r="J31" t="n">
-        <v>42209146.25451952</v>
+        <v>747673.5419135025</v>
       </c>
       <c r="K31" t="n">
-        <v>44008772.5720967</v>
+        <v>556204.3645120793</v>
       </c>
       <c r="L31" t="n">
-        <v>37252097.0140549</v>
+        <v>499146.2369446871</v>
       </c>
       <c r="M31" t="n">
-        <v>45429404.57692232</v>
+        <v>522047.0046825992</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>983707.8662485806</v>
+        <v>1922812.245797593</v>
       </c>
       <c r="C32" t="n">
-        <v>1216619.813488875</v>
+        <v>2607285.393002259</v>
       </c>
       <c r="D32" t="n">
-        <v>1290272.243566345</v>
+        <v>3033268.000643504</v>
       </c>
       <c r="E32" t="n">
-        <v>1183635.528255471</v>
+        <v>3271469.152762296</v>
       </c>
       <c r="F32" t="n">
-        <v>1021988.055323174</v>
+        <v>3513359.690355764</v>
       </c>
       <c r="G32" t="n">
-        <v>898446.4708857569</v>
+        <v>2553518.259270507</v>
       </c>
       <c r="H32" t="n">
-        <v>847186.4138534056</v>
+        <v>2971732.191178738</v>
       </c>
       <c r="I32" t="n">
-        <v>110186834079.5965</v>
+        <v>3471638.631719362</v>
       </c>
       <c r="J32" t="n">
-        <v>2000512.456502038</v>
+        <v>2605231.082340194</v>
       </c>
       <c r="K32" t="n">
-        <v>1300171.089555294</v>
+        <v>2187306.315399133</v>
       </c>
       <c r="L32" t="n">
-        <v>1221491.054445843</v>
+        <v>2573436.216924535</v>
       </c>
       <c r="M32" t="n">
-        <v>2226325.972052053</v>
+        <v>2256355.975917649</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1958386.258853482</v>
+        <v>2205874.033098981</v>
       </c>
       <c r="C33" t="n">
-        <v>3775017.795630093</v>
+        <v>1950205.752699184</v>
       </c>
       <c r="D33" t="n">
-        <v>2625164.779231503</v>
+        <v>1924868.381006628</v>
       </c>
       <c r="E33" t="n">
-        <v>2586808.988589709</v>
+        <v>1100033.739813759</v>
       </c>
       <c r="F33" t="n">
-        <v>3938020.627308764</v>
+        <v>1187244.533980598</v>
       </c>
       <c r="G33" t="n">
-        <v>3075767.809674638</v>
+        <v>1149705.346171386</v>
       </c>
       <c r="H33" t="n">
-        <v>3917470.186753224</v>
+        <v>1224863.843486272</v>
       </c>
       <c r="I33" t="n">
-        <v>5612786.738036559</v>
+        <v>1264497.184314833</v>
       </c>
       <c r="J33" t="n">
-        <v>5421138.583738587</v>
+        <v>1208915.81717341</v>
       </c>
       <c r="K33" t="n">
-        <v>7804605.304629494</v>
+        <v>1431461.380887243</v>
       </c>
       <c r="L33" t="n">
-        <v>4927097.915518361</v>
+        <v>2124843.944125107</v>
       </c>
       <c r="M33" t="n">
-        <v>4315280.347387786</v>
+        <v>2296887.513806294</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>9913705.1035337</v>
+        <v>3578901.842476108</v>
       </c>
       <c r="C34" t="n">
-        <v>8021881.091572878</v>
+        <v>2385767.152408472</v>
       </c>
       <c r="D34" t="n">
-        <v>15122479.00864444</v>
+        <v>3678795.912935427</v>
       </c>
       <c r="E34" t="n">
-        <v>13654288.13692843</v>
+        <v>2650755.665178736</v>
       </c>
       <c r="F34" t="n">
-        <v>16301624.21115257</v>
+        <v>3275345.09730324</v>
       </c>
       <c r="G34" t="n">
-        <v>17139899.38510067</v>
+        <v>2733272.94563299</v>
       </c>
       <c r="H34" t="n">
-        <v>10067733.58623648</v>
+        <v>2747601.226692697</v>
       </c>
       <c r="I34" t="n">
-        <v>13097162.38444749</v>
+        <v>3048491.183306181</v>
       </c>
       <c r="J34" t="n">
-        <v>16974604.17084299</v>
+        <v>3137464.555227845</v>
       </c>
       <c r="K34" t="n">
-        <v>16776006.82108459</v>
+        <v>3068740.213349696</v>
       </c>
       <c r="L34" t="n">
-        <v>13924581.13946952</v>
+        <v>3352692.508803352</v>
       </c>
       <c r="M34" t="n">
-        <v>14843219.61475988</v>
+        <v>3379919.869536666</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3508097.369722075</v>
+        <v>9271148.096977931</v>
       </c>
       <c r="C35" t="n">
-        <v>3631848.260570109</v>
+        <v>2449563.813826583</v>
       </c>
       <c r="D35" t="n">
-        <v>4521582.25796614</v>
+        <v>2899390.841265148</v>
       </c>
       <c r="E35" t="n">
-        <v>4416736.625290435</v>
+        <v>2405260.09527207</v>
       </c>
       <c r="F35" t="n">
-        <v>3497737.94019683</v>
+        <v>2233434.071175719</v>
       </c>
       <c r="G35" t="n">
-        <v>2822706.279788167</v>
+        <v>1910171.575490307</v>
       </c>
       <c r="H35" t="n">
-        <v>2245584.493561812</v>
+        <v>1713975.961145739</v>
       </c>
       <c r="I35" t="n">
-        <v>3327738.355680262</v>
+        <v>1803703.600587965</v>
       </c>
       <c r="J35" t="n">
-        <v>2218661.757003337</v>
+        <v>1477683.615568523</v>
       </c>
       <c r="K35" t="n">
-        <v>2144791.300538147</v>
+        <v>1388218.213935763</v>
       </c>
       <c r="L35" t="n">
-        <v>14203933.88593987</v>
+        <v>1462320.441099586</v>
       </c>
       <c r="M35" t="n">
-        <v>4038088.988729107</v>
+        <v>1770784.543880529</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2079072.627811582</v>
+        <v>1238533.436439076</v>
       </c>
       <c r="C36" t="n">
-        <v>2720052.150729636</v>
+        <v>1293927.080016108</v>
       </c>
       <c r="D36" t="n">
-        <v>2891958.235823784</v>
+        <v>1551041.107752408</v>
       </c>
       <c r="E36" t="n">
-        <v>2325196.372221678</v>
+        <v>1078144.595877138</v>
       </c>
       <c r="F36" t="n">
-        <v>2143679.974205697</v>
+        <v>1218495.066318467</v>
       </c>
       <c r="G36" t="n">
-        <v>2778986.753351334</v>
+        <v>1178310.680414995</v>
       </c>
       <c r="H36" t="n">
-        <v>3140270.628423988</v>
+        <v>1444419.258613129</v>
       </c>
       <c r="I36" t="n">
-        <v>3157334.102027086</v>
+        <v>1535693.743895641</v>
       </c>
       <c r="J36" t="n">
-        <v>3123880.037686585</v>
+        <v>1327905.199638729</v>
       </c>
       <c r="K36" t="n">
-        <v>2039361.916830286</v>
+        <v>1395198.07441983</v>
       </c>
       <c r="L36" t="n">
-        <v>2767695.827974377</v>
+        <v>1920218.057835545</v>
       </c>
       <c r="M36" t="n">
-        <v>3297020.481259028</v>
+        <v>1821685.965516293</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>6706560.609212564</v>
+        <v>5209853.764069071</v>
       </c>
       <c r="C37" t="n">
-        <v>7490778.403548335</v>
+        <v>4454901.109117708</v>
       </c>
       <c r="D37" t="n">
-        <v>4977963.223516461</v>
+        <v>5298840.130054177</v>
       </c>
       <c r="E37" t="n">
-        <v>7104289.028787368</v>
+        <v>4638936.207502048</v>
       </c>
       <c r="F37" t="n">
-        <v>5440997.043145019</v>
+        <v>3936231.304201644</v>
       </c>
       <c r="G37" t="n">
-        <v>6814333.226333252</v>
+        <v>3439794.478020369</v>
       </c>
       <c r="H37" t="n">
-        <v>3071291.359507296</v>
+        <v>3461514.969443493</v>
       </c>
       <c r="I37" t="n">
-        <v>4836304.940985083</v>
+        <v>5176466.024366708</v>
       </c>
       <c r="J37" t="n">
-        <v>6539217.345282256</v>
+        <v>3560026.852915692</v>
       </c>
       <c r="K37" t="n">
-        <v>4172660.139600721</v>
+        <v>3156046.207819595</v>
       </c>
       <c r="L37" t="n">
-        <v>3573160.551259405</v>
+        <v>4732858.652554204</v>
       </c>
       <c r="M37" t="n">
-        <v>5380158.899994612</v>
+        <v>5286198.642944449</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2267680.01205349</v>
+        <v>3789816.178707326</v>
       </c>
       <c r="C38" t="n">
-        <v>1844457.808336335</v>
+        <v>4551418.454764649</v>
       </c>
       <c r="D38" t="n">
-        <v>2500049.464300274</v>
+        <v>4397375.168685131</v>
       </c>
       <c r="E38" t="n">
-        <v>2782517.300262762</v>
+        <v>3641582.959798942</v>
       </c>
       <c r="F38" t="n">
-        <v>2918185.125152605</v>
+        <v>4494589.320623856</v>
       </c>
       <c r="G38" t="n">
-        <v>1970937.906843328</v>
+        <v>3200707.401949215</v>
       </c>
       <c r="H38" t="n">
-        <v>1693898.632817744</v>
+        <v>3892307.245636242</v>
       </c>
       <c r="I38" t="n">
-        <v>2699414.31100439</v>
+        <v>3483209.199573424</v>
       </c>
       <c r="J38" t="n">
-        <v>2657042.909897252</v>
+        <v>3762223.399250068</v>
       </c>
       <c r="K38" t="n">
-        <v>1835036.170425657</v>
+        <v>4534344.634307216</v>
       </c>
       <c r="L38" t="n">
-        <v>2099600.716428981</v>
+        <v>4409841.16663705</v>
       </c>
       <c r="M38" t="n">
-        <v>2989502.082521124</v>
+        <v>4575186.816475389</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3316825.545170681</v>
+        <v>4606333.828465735</v>
       </c>
       <c r="C39" t="n">
-        <v>3313262.426010053</v>
+        <v>4500703.063486394</v>
       </c>
       <c r="D39" t="n">
-        <v>3612637.752591238</v>
+        <v>5186507.398368045</v>
       </c>
       <c r="E39" t="n">
-        <v>5390086.605058453</v>
+        <v>3822845.727552783</v>
       </c>
       <c r="F39" t="n">
-        <v>4824474.852047017</v>
+        <v>3725728.216335048</v>
       </c>
       <c r="G39" t="n">
-        <v>5255865.872191942</v>
+        <v>3275526.87728449</v>
       </c>
       <c r="H39" t="n">
-        <v>3938971.531274409</v>
+        <v>2669947.87088816</v>
       </c>
       <c r="I39" t="n">
-        <v>3600254.228599944</v>
+        <v>3616243.565761521</v>
       </c>
       <c r="J39" t="n">
-        <v>3550454.504601832</v>
+        <v>3986114.031606331</v>
       </c>
       <c r="K39" t="n">
-        <v>3800801.42053282</v>
+        <v>4512747.654915982</v>
       </c>
       <c r="L39" t="n">
-        <v>4311770.443737553</v>
+        <v>4756569.812172013</v>
       </c>
       <c r="M39" t="n">
-        <v>4679507.866713875</v>
+        <v>4475259.594937642</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>10711226.69997512</v>
+        <v>5605828.358747155</v>
       </c>
       <c r="C40" t="n">
-        <v>10225529.08655577</v>
+        <v>5211581.280104975</v>
       </c>
       <c r="D40" t="n">
-        <v>13303932.20996696</v>
+        <v>5718016.688674806</v>
       </c>
       <c r="E40" t="n">
-        <v>16156656.04739438</v>
+        <v>5088805.165335884</v>
       </c>
       <c r="F40" t="n">
-        <v>14781811.86042059</v>
+        <v>5588699.516722194</v>
       </c>
       <c r="G40" t="n">
-        <v>15324384.41674551</v>
+        <v>4283062.088859729</v>
       </c>
       <c r="H40" t="n">
-        <v>9587514.009482943</v>
+        <v>4879491.353742816</v>
       </c>
       <c r="I40" t="n">
-        <v>14528935.53170828</v>
+        <v>5067360.731920596</v>
       </c>
       <c r="J40" t="n">
-        <v>11646623.59280477</v>
+        <v>5808816.925910503</v>
       </c>
       <c r="K40" t="n">
-        <v>13524384.98070803</v>
+        <v>5263113.055534227</v>
       </c>
       <c r="L40" t="n">
-        <v>9681061.083017007</v>
+        <v>5964429.149349265</v>
       </c>
       <c r="M40" t="n">
-        <v>12273036.88292477</v>
+        <v>5488670.574758372</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>10952754.88489273</v>
+        <v>3174282.375926923</v>
       </c>
       <c r="C41" t="n">
-        <v>22196715.63429662</v>
+        <v>3492674.927141311</v>
       </c>
       <c r="D41" t="n">
-        <v>17198814.38060358</v>
+        <v>3673002.382324236</v>
       </c>
       <c r="E41" t="n">
-        <v>12740052.52167693</v>
+        <v>2826457.559435122</v>
       </c>
       <c r="F41" t="n">
-        <v>12610476.65150358</v>
+        <v>3686568.030601398</v>
       </c>
       <c r="G41" t="n">
-        <v>12489404.34259933</v>
+        <v>2696573.959943728</v>
       </c>
       <c r="H41" t="n">
-        <v>9353198.84119611</v>
+        <v>2735369.806877008</v>
       </c>
       <c r="I41" t="n">
-        <v>10810905.87600073</v>
+        <v>3098544.21274475</v>
       </c>
       <c r="J41" t="n">
-        <v>10780817.50123172</v>
+        <v>3155040.690418312</v>
       </c>
       <c r="K41" t="n">
-        <v>10684703.89016617</v>
+        <v>2835753.598802029</v>
       </c>
       <c r="L41" t="n">
-        <v>7450901.145681446</v>
+        <v>3352605.041108192</v>
       </c>
       <c r="M41" t="n">
-        <v>12737753.15336769</v>
+        <v>3827827.608021122</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>6471484334.789083</v>
+        <v>4520727.442266755</v>
       </c>
       <c r="C42" t="n">
-        <v>6355163141.961376</v>
+        <v>5169618.667984479</v>
       </c>
       <c r="D42" t="n">
-        <v>2144300.150524137</v>
+        <v>5009192.596979303</v>
       </c>
       <c r="E42" t="n">
-        <v>776928006.3033378</v>
+        <v>4659735.469205641</v>
       </c>
       <c r="F42" t="n">
-        <v>3609389081.042087</v>
+        <v>4477424.932315762</v>
       </c>
       <c r="G42" t="n">
-        <v>2635885.380321526</v>
+        <v>3034934.153227991</v>
       </c>
       <c r="H42" t="n">
-        <v>1117335.467777538</v>
+        <v>3654661.399877921</v>
       </c>
       <c r="I42" t="n">
-        <v>1873415.156574348</v>
+        <v>4252495.275095333</v>
       </c>
       <c r="J42" t="n">
-        <v>64979575.17246291</v>
+        <v>4000087.164196584</v>
       </c>
       <c r="K42" t="n">
-        <v>1333490864.564219</v>
+        <v>3821913.906895701</v>
       </c>
       <c r="L42" t="n">
-        <v>649910393.5131793</v>
+        <v>4213055.572344062</v>
       </c>
       <c r="M42" t="n">
-        <v>1798622398.481566</v>
+        <v>4778841.40339378</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>6639747.028680814</v>
+        <v>3365208.060138801</v>
       </c>
       <c r="C43" t="n">
-        <v>5861932.183809271</v>
+        <v>3448551.199125631</v>
       </c>
       <c r="D43" t="n">
-        <v>8455074.063410418</v>
+        <v>3480148.620053929</v>
       </c>
       <c r="E43" t="n">
-        <v>8229931.859787598</v>
+        <v>3664610.98083718</v>
       </c>
       <c r="F43" t="n">
-        <v>7576945.732742223</v>
+        <v>3950052.199975026</v>
       </c>
       <c r="G43" t="n">
-        <v>9193773.925740827</v>
+        <v>2668886.285221529</v>
       </c>
       <c r="H43" t="n">
-        <v>5937704.648109672</v>
+        <v>2695148.463447499</v>
       </c>
       <c r="I43" t="n">
-        <v>6680605.877522887</v>
+        <v>3752645.961020438</v>
       </c>
       <c r="J43" t="n">
-        <v>9774190.065142561</v>
+        <v>3267681.137845839</v>
       </c>
       <c r="K43" t="n">
-        <v>7435947.410771797</v>
+        <v>3442265.207092816</v>
       </c>
       <c r="L43" t="n">
-        <v>5050341.08073525</v>
+        <v>3958081.870140035</v>
       </c>
       <c r="M43" t="n">
-        <v>5905572.862993393</v>
+        <v>3986564.266033409</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>14997868.30254471</v>
+        <v>4366401050.262017</v>
       </c>
       <c r="C44" t="n">
-        <v>19571724.2688964</v>
+        <v>4838718.910951559</v>
       </c>
       <c r="D44" t="n">
-        <v>18981915.21642881</v>
+        <v>2885732166.24159</v>
       </c>
       <c r="E44" t="n">
-        <v>18311265.49952035</v>
+        <v>4195654.900536162</v>
       </c>
       <c r="F44" t="n">
-        <v>15576257.59724391</v>
+        <v>5029558.651074611</v>
       </c>
       <c r="G44" t="n">
-        <v>21075248.51058949</v>
+        <v>3693328.478757279</v>
       </c>
       <c r="H44" t="n">
-        <v>15944114.77620353</v>
+        <v>3996450.401362495</v>
       </c>
       <c r="I44" t="n">
-        <v>19995552.67216553</v>
+        <v>4723648.028592186</v>
       </c>
       <c r="J44" t="n">
-        <v>19670709.36572196</v>
+        <v>5989570802.219508</v>
       </c>
       <c r="K44" t="n">
-        <v>13348271.37886494</v>
+        <v>11098273685.78854</v>
       </c>
       <c r="L44" t="n">
-        <v>14062394.02849274</v>
+        <v>4502833.489506419</v>
       </c>
       <c r="M44" t="n">
-        <v>14825644.8211923</v>
+        <v>5344083.635289839</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>8688468.797606401</v>
+        <v>3355302.58160389</v>
       </c>
       <c r="C45" t="n">
-        <v>7189723.046077431</v>
+        <v>4128426.937156366</v>
       </c>
       <c r="D45" t="n">
-        <v>6174309.555495681</v>
+        <v>3274124.156240159</v>
       </c>
       <c r="E45" t="n">
-        <v>6782307.993168291</v>
+        <v>3375051.4493327</v>
       </c>
       <c r="F45" t="n">
-        <v>5651808.306053176</v>
+        <v>3640610.554225029</v>
       </c>
       <c r="G45" t="n">
-        <v>7964137.169700543</v>
+        <v>2848387.118451741</v>
       </c>
       <c r="H45" t="n">
-        <v>5886413.319464376</v>
+        <v>3277515.05326694</v>
       </c>
       <c r="I45" t="n">
-        <v>6842945.871124296</v>
+        <v>3668403.60121363</v>
       </c>
       <c r="J45" t="n">
-        <v>7080059.225347038</v>
+        <v>3543862.196457658</v>
       </c>
       <c r="K45" t="n">
-        <v>6354801.399439987</v>
+        <v>3113259.801703734</v>
       </c>
       <c r="L45" t="n">
-        <v>4811984.845173714</v>
+        <v>3441072.451052068</v>
       </c>
       <c r="M45" t="n">
-        <v>5653971.403286271</v>
+        <v>4041780.357388229</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>20307214.04859895</v>
+        <v>2204572.243281633</v>
       </c>
       <c r="C46" t="n">
-        <v>13564701.69622218</v>
+        <v>2457222.384082311</v>
       </c>
       <c r="D46" t="n">
-        <v>10054690.77874502</v>
+        <v>2515366.917836789</v>
       </c>
       <c r="E46" t="n">
-        <v>9215005.528903527</v>
+        <v>1812991.41228741</v>
       </c>
       <c r="F46" t="n">
-        <v>13110472.49360742</v>
+        <v>2141585.295261766</v>
       </c>
       <c r="G46" t="n">
-        <v>19805886.12046521</v>
+        <v>1865382.806846777</v>
       </c>
       <c r="H46" t="n">
-        <v>8595851.311872486</v>
+        <v>2159595.174705617</v>
       </c>
       <c r="I46" t="n">
-        <v>16820761.52428635</v>
+        <v>2539681.450769951</v>
       </c>
       <c r="J46" t="n">
-        <v>13717310.01986649</v>
+        <v>2009652.990456634</v>
       </c>
       <c r="K46" t="n">
-        <v>17324460.50561034</v>
+        <v>2266460.347436298</v>
       </c>
       <c r="L46" t="n">
-        <v>10494775.18045154</v>
+        <v>2155907.821250085</v>
       </c>
       <c r="M46" t="n">
-        <v>16174881.4308659</v>
+        <v>2214381.662108092</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2100065.41962136</v>
+        <v>1534300.276663336</v>
       </c>
       <c r="C47" t="n">
-        <v>2102221.202897226</v>
+        <v>1503405.334686535</v>
       </c>
       <c r="D47" t="n">
-        <v>2146102.118459121</v>
+        <v>1045814.354684384</v>
       </c>
       <c r="E47" t="n">
-        <v>2017748.831157377</v>
+        <v>854427.5632023083</v>
       </c>
       <c r="F47" t="n">
-        <v>2841777.999414813</v>
+        <v>851495.2402433233</v>
       </c>
       <c r="G47" t="n">
-        <v>3009898.835075561</v>
+        <v>916811.9096205565</v>
       </c>
       <c r="H47" t="n">
-        <v>2502920.91533839</v>
+        <v>977059.2458040456</v>
       </c>
       <c r="I47" t="n">
-        <v>2896700.945656826</v>
+        <v>977201.570022251</v>
       </c>
       <c r="J47" t="n">
-        <v>3345871.632218974</v>
+        <v>74622957.51691732</v>
       </c>
       <c r="K47" t="n">
-        <v>2577675.30219759</v>
+        <v>1792866.812540175</v>
       </c>
       <c r="L47" t="n">
-        <v>2374391.421839759</v>
+        <v>1563643.243970781</v>
       </c>
       <c r="M47" t="n">
-        <v>2865128.610992297</v>
+        <v>1670430.891114664</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>737330.1113285203</v>
+        <v>5094545.154728383</v>
       </c>
       <c r="C48" t="n">
-        <v>2352436.36818767</v>
+        <v>5946405.045655054</v>
       </c>
       <c r="D48" t="n">
-        <v>1279648.632598174</v>
+        <v>6144332.872155407</v>
       </c>
       <c r="E48" t="n">
-        <v>1023906.163454818</v>
+        <v>5706682.807436346</v>
       </c>
       <c r="F48" t="n">
-        <v>1073988.051470052</v>
+        <v>6235380.110608446</v>
       </c>
       <c r="G48" t="n">
-        <v>1839826.042103707</v>
+        <v>5344004.497471589</v>
       </c>
       <c r="H48" t="n">
-        <v>1260387.569657509</v>
+        <v>6022269.784054007</v>
       </c>
       <c r="I48" t="n">
-        <v>906214.0210426614</v>
+        <v>5837840.312505976</v>
       </c>
       <c r="J48" t="n">
-        <v>680009.3242798856</v>
+        <v>5511625.813118723</v>
       </c>
       <c r="K48" t="n">
-        <v>1262138.747918826</v>
+        <v>6607529.237208226</v>
       </c>
       <c r="L48" t="n">
-        <v>909155.3713473952</v>
+        <v>6395688.408600051</v>
       </c>
       <c r="M48" t="n">
-        <v>747113.9480906724</v>
+        <v>5958029.300016381</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>590967.8684396023</v>
+        <v>368997.5475570843</v>
       </c>
       <c r="C49" t="n">
-        <v>548552.3041865313</v>
+        <v>505158.019032686</v>
       </c>
       <c r="D49" t="n">
-        <v>773113.5243513848</v>
+        <v>277670.6865904956</v>
       </c>
       <c r="E49" t="n">
-        <v>878719.5596960473</v>
+        <v>334249.6360972395</v>
       </c>
       <c r="F49" t="n">
-        <v>954775.6827479382</v>
+        <v>394831.0568103429</v>
       </c>
       <c r="G49" t="n">
-        <v>958311.2883342269</v>
+        <v>252496.7664575322</v>
       </c>
       <c r="H49" t="n">
-        <v>456099.8512797623</v>
+        <v>589099.0043481144</v>
       </c>
       <c r="I49" t="n">
-        <v>877591.7131105119</v>
+        <v>984205.8804011631</v>
       </c>
       <c r="J49" t="n">
-        <v>885454.3143453333</v>
+        <v>1051557.478458976</v>
       </c>
       <c r="K49" t="n">
-        <v>857124.5122111875</v>
+        <v>732632.0732799736</v>
       </c>
       <c r="L49" t="n">
-        <v>641352.4555778301</v>
+        <v>623918.9612462611</v>
       </c>
       <c r="M49" t="n">
-        <v>578900.1174466389</v>
+        <v>765965.9799928205</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1419145.960499358</v>
+        <v>2654665.012235517</v>
       </c>
       <c r="C50" t="n">
-        <v>1426136.451950096</v>
+        <v>2596954.83121631</v>
       </c>
       <c r="D50" t="n">
-        <v>1934605.76540798</v>
+        <v>1462076.719934759</v>
       </c>
       <c r="E50" t="n">
-        <v>2251858.579846636</v>
+        <v>1652448.583649015</v>
       </c>
       <c r="F50" t="n">
-        <v>2429372.56881939</v>
+        <v>1923062.358145524</v>
       </c>
       <c r="G50" t="n">
-        <v>2609981.822076713</v>
+        <v>1298836.415309025</v>
       </c>
       <c r="H50" t="n">
-        <v>2083884.339277041</v>
+        <v>1418315.45403383</v>
       </c>
       <c r="I50" t="n">
-        <v>2209272.849420632</v>
+        <v>1599910.196021966</v>
       </c>
       <c r="J50" t="n">
-        <v>2581767.193617013</v>
+        <v>2563347.989233392</v>
       </c>
       <c r="K50" t="n">
-        <v>1938090.450788303</v>
+        <v>3433400.206438784</v>
       </c>
       <c r="L50" t="n">
-        <v>1627707.189288816</v>
+        <v>3019230.915501669</v>
       </c>
       <c r="M50" t="n">
-        <v>1915720.514838693</v>
+        <v>2623198.641255822</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2245498.623592241</v>
+        <v>3025711.6127189</v>
       </c>
       <c r="C51" t="n">
-        <v>2164354.262613053</v>
+        <v>3106532.872127519</v>
       </c>
       <c r="D51" t="n">
-        <v>1913139.602571257</v>
+        <v>2181170.193716853</v>
       </c>
       <c r="E51" t="n">
-        <v>1887848.572917607</v>
+        <v>2035269.046811961</v>
       </c>
       <c r="F51" t="n">
-        <v>1078807.525494426</v>
+        <v>1935562.069671734</v>
       </c>
       <c r="G51" t="n">
-        <v>1163917.453100096</v>
+        <v>1527112.497969082</v>
       </c>
       <c r="H51" t="n">
-        <v>1006249.414682168</v>
+        <v>1928765.183732675</v>
       </c>
       <c r="I51" t="n">
-        <v>1200233.859508811</v>
+        <v>1700126.249705504</v>
       </c>
       <c r="J51" t="n">
-        <v>1238853.012148427</v>
+        <v>3372409.836064124</v>
       </c>
       <c r="K51" t="n">
-        <v>1184183.384522013</v>
+        <v>2951971.355665181</v>
       </c>
       <c r="L51" t="n">
-        <v>18764081.52857797</v>
+        <v>3085347.343527969</v>
       </c>
       <c r="M51" t="n">
-        <v>2080961.66654004</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>3124036.96293501</v>
-      </c>
-      <c r="C52" t="n">
-        <v>4092493.239080409</v>
-      </c>
-      <c r="D52" t="n">
-        <v>2740321.691295581</v>
-      </c>
-      <c r="E52" t="n">
-        <v>4245024.403004084</v>
-      </c>
-      <c r="F52" t="n">
-        <v>3070413.835183975</v>
-      </c>
-      <c r="G52" t="n">
-        <v>3808657.620742154</v>
-      </c>
-      <c r="H52" t="n">
-        <v>3130843.309616427</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3218936.90121373</v>
-      </c>
-      <c r="J52" t="n">
-        <v>3584065.046693445</v>
-      </c>
-      <c r="K52" t="n">
-        <v>3701178.498842149</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3631991.965064492</v>
-      </c>
-      <c r="M52" t="n">
-        <v>3980520.088698658</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1314900.433184291</v>
-      </c>
-      <c r="C53" t="n">
-        <v>6892532.279485614</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1821090.126724429</v>
-      </c>
-      <c r="E53" t="n">
-        <v>2155506.992392009</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1788153.079019965</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1660411.608821935</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1522868.287068211</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1274276.951530138</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1340935.229619788</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1098560.510550452</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1032048.8136711</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1087176.722271742</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1859043.80785298</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1372373.342454544</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1443339.548862008</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1741475.60305169</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1218296.752209344</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1385572.298871896</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1414812.444000841</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1662664.186605528</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1778264.72192981</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1546650.08944493</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1634363.546949068</v>
-      </c>
-      <c r="M54" t="n">
-        <v>2262158.384944057</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>5459772.990099376</v>
-      </c>
-      <c r="C55" t="n">
-        <v>5632470.875709629</v>
-      </c>
-      <c r="D55" t="n">
-        <v>4836923.998903661</v>
-      </c>
-      <c r="E55" t="n">
-        <v>5777622.683939039</v>
-      </c>
-      <c r="F55" t="n">
-        <v>5079294.053814325</v>
-      </c>
-      <c r="G55" t="n">
-        <v>4327753.788179697</v>
-      </c>
-      <c r="H55" t="n">
-        <v>3304260.618886128</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3836896.170058948</v>
-      </c>
-      <c r="J55" t="n">
-        <v>5760837.496083301</v>
-      </c>
-      <c r="K55" t="n">
-        <v>3977616.484189249</v>
-      </c>
-      <c r="L55" t="n">
-        <v>3540110.096052316</v>
-      </c>
-      <c r="M55" t="n">
-        <v>5329641.832565633</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>4017000.183770842</v>
-      </c>
-      <c r="C56" t="n">
-        <v>3822537.954119245</v>
-      </c>
-      <c r="D56" t="n">
-        <v>4593039.819651457</v>
-      </c>
-      <c r="E56" t="n">
-        <v>4439793.269851143</v>
-      </c>
-      <c r="F56" t="n">
-        <v>3678486.903174699</v>
-      </c>
-      <c r="G56" t="n">
-        <v>4542277.801883398</v>
-      </c>
-      <c r="H56" t="n">
-        <v>3411289.512446717</v>
-      </c>
-      <c r="I56" t="n">
-        <v>3937205.841199149</v>
-      </c>
-      <c r="J56" t="n">
-        <v>3524939.074044096</v>
-      </c>
-      <c r="K56" t="n">
-        <v>3808931.415633957</v>
-      </c>
-      <c r="L56" t="n">
-        <v>4592568.596228773</v>
-      </c>
-      <c r="M56" t="n">
-        <v>4468328.233038678</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>5000023.143540744</v>
-      </c>
-      <c r="C57" t="n">
-        <v>4508625.393140918</v>
-      </c>
-      <c r="D57" t="n">
-        <v>4417036.750020032</v>
-      </c>
-      <c r="E57" t="n">
-        <v>5089092.707070437</v>
-      </c>
-      <c r="F57" t="n">
-        <v>3748906.691566642</v>
-      </c>
-      <c r="G57" t="n">
-        <v>3658559.144293208</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2229402.451211361</v>
-      </c>
-      <c r="I57" t="n">
-        <v>2562063.265841031</v>
-      </c>
-      <c r="J57" t="n">
-        <v>3421259.709334773</v>
-      </c>
-      <c r="K57" t="n">
-        <v>4067668.74766664</v>
-      </c>
-      <c r="L57" t="n">
-        <v>4547024.174712972</v>
-      </c>
-      <c r="M57" t="n">
-        <v>4783184.491099048</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>146391137.4086355</v>
-      </c>
-      <c r="C58" t="n">
-        <v>3176209.897918906</v>
-      </c>
-      <c r="D58" t="n">
-        <v>962258413.5470346</v>
-      </c>
-      <c r="E58" t="n">
-        <v>703604454.290507</v>
-      </c>
-      <c r="F58" t="n">
-        <v>392612597.1335616</v>
-      </c>
-      <c r="G58" t="n">
-        <v>3323766.373631748</v>
-      </c>
-      <c r="H58" t="n">
-        <v>2581891.480044807</v>
-      </c>
-      <c r="I58" t="n">
-        <v>2965004.784580196</v>
-      </c>
-      <c r="J58" t="n">
-        <v>4676789140.156865</v>
-      </c>
-      <c r="K58" t="n">
-        <v>3603938.612140104</v>
-      </c>
-      <c r="L58" t="n">
-        <v>1014136334.500041</v>
-      </c>
-      <c r="M58" t="n">
-        <v>3773756.200170512</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>3473380.173184484</v>
-      </c>
-      <c r="C59" t="n">
-        <v>3298066.214030567</v>
-      </c>
-      <c r="D59" t="n">
-        <v>3628049.74358301</v>
-      </c>
-      <c r="E59" t="n">
-        <v>3814508.54636379</v>
-      </c>
-      <c r="F59" t="n">
-        <v>2934702.544395308</v>
-      </c>
-      <c r="G59" t="n">
-        <v>3826929.674028199</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2346212.823431734</v>
-      </c>
-      <c r="I59" t="n">
-        <v>2838321.689164899</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3214514.49945548</v>
-      </c>
-      <c r="K59" t="n">
-        <v>3272477.957429404</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2940742.98447566</v>
-      </c>
-      <c r="M59" t="n">
-        <v>3476065.457212719</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>4303201.206090208</v>
-      </c>
-      <c r="C60" t="n">
-        <v>4614751.977497442</v>
-      </c>
-      <c r="D60" t="n">
-        <v>5275400.83318458</v>
-      </c>
-      <c r="E60" t="n">
-        <v>5110044.634021471</v>
-      </c>
-      <c r="F60" t="n">
-        <v>4752052.110077294</v>
-      </c>
-      <c r="G60" t="n">
-        <v>4564719.345898919</v>
-      </c>
-      <c r="H60" t="n">
-        <v>3188815.060537464</v>
-      </c>
-      <c r="I60" t="n">
-        <v>3723685.898060538</v>
-      </c>
-      <c r="J60" t="n">
-        <v>4331552.207149543</v>
-      </c>
-      <c r="K60" t="n">
-        <v>4073288.882138343</v>
-      </c>
-      <c r="L60" t="n">
-        <v>3890768.849014708</v>
-      </c>
-      <c r="M60" t="n">
-        <v>4287745.196631026</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>3385313.556642632</v>
-      </c>
-      <c r="C61" t="n">
-        <v>3468256.371573371</v>
-      </c>
-      <c r="D61" t="n">
-        <v>3542260.426286273</v>
-      </c>
-      <c r="E61" t="n">
-        <v>3563127.190321764</v>
-      </c>
-      <c r="F61" t="n">
-        <v>3740211.092985215</v>
-      </c>
-      <c r="G61" t="n">
-        <v>4019263.034690634</v>
-      </c>
-      <c r="H61" t="n">
-        <v>3103048.353463937</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2726482.987086764</v>
-      </c>
-      <c r="J61" t="n">
-        <v>3785671.462600861</v>
-      </c>
-      <c r="K61" t="n">
-        <v>3287510.229189062</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3454035.488691002</v>
-      </c>
-      <c r="M61" t="n">
-        <v>3961522.920360385</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>3682425.465831699</v>
-      </c>
-      <c r="C62" t="n">
-        <v>3216107476.602048</v>
-      </c>
-      <c r="D62" t="n">
-        <v>3842696.193892112</v>
-      </c>
-      <c r="E62" t="n">
-        <v>1846279838.165985</v>
-      </c>
-      <c r="F62" t="n">
-        <v>3331276.837918228</v>
-      </c>
-      <c r="G62" t="n">
-        <v>3993277.286960375</v>
-      </c>
-      <c r="H62" t="n">
-        <v>7628093355.844766</v>
-      </c>
-      <c r="I62" t="n">
-        <v>3173695.210336775</v>
-      </c>
-      <c r="J62" t="n">
-        <v>3749936.638349659</v>
-      </c>
-      <c r="K62" t="n">
-        <v>2960162442.29479</v>
-      </c>
-      <c r="L62" t="n">
-        <v>5324779447.828032</v>
-      </c>
-      <c r="M62" t="n">
-        <v>3572309.599506439</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>3723784.336110217</v>
-      </c>
-      <c r="C63" t="n">
-        <v>3636741.200790335</v>
-      </c>
-      <c r="D63" t="n">
-        <v>4479221.660129871</v>
-      </c>
-      <c r="E63" t="n">
-        <v>3555805.703997354</v>
-      </c>
-      <c r="F63" t="n">
-        <v>3668897.944001218</v>
-      </c>
-      <c r="G63" t="n">
-        <v>3961234.26350385</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2963257.906288651</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3572458.643517431</v>
-      </c>
-      <c r="J63" t="n">
-        <v>4001936.143434856</v>
-      </c>
-      <c r="K63" t="n">
-        <v>3869278.305367656</v>
-      </c>
-      <c r="L63" t="n">
-        <v>3401880.006864334</v>
-      </c>
-      <c r="M63" t="n">
-        <v>3763084.293241255</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>2284803.304771796</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2322459.186400476</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2591156.783070746</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2655054.003541955</v>
-      </c>
-      <c r="F64" t="n">
-        <v>1915534.142441071</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2264911.052911403</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1895730.924098289</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2288351.290296296</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2693661.077450033</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2133529.198212998</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2408447.925344319</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2293151.856737489</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>1789025.456183637</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1645280.73869439</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1612109.284592431</v>
-      </c>
-      <c r="E65" t="n">
-        <v>1121431.959065903</v>
-      </c>
-      <c r="F65" t="n">
-        <v>916206.9565662742</v>
-      </c>
-      <c r="G65" t="n">
-        <v>913062.6234118062</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1047577.041130574</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1047732.200670392</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1047858.338955369</v>
-      </c>
-      <c r="K65" t="n">
-        <v>80018689.87143107</v>
-      </c>
-      <c r="L65" t="n">
-        <v>1922500.216270939</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1676723.831885922</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>4684920.546565605</v>
-      </c>
-      <c r="C66" t="n">
-        <v>4880773.37800731</v>
-      </c>
-      <c r="D66" t="n">
-        <v>5691574.524905289</v>
-      </c>
-      <c r="E66" t="n">
-        <v>5875692.083051377</v>
-      </c>
-      <c r="F66" t="n">
-        <v>5452408.554413165</v>
-      </c>
-      <c r="G66" t="n">
-        <v>5952511.133410685</v>
-      </c>
-      <c r="H66" t="n">
-        <v>4272185.273895988</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5739718.848909806</v>
-      </c>
-      <c r="J66" t="n">
-        <v>5559679.533020678</v>
-      </c>
-      <c r="K66" t="n">
-        <v>5245121.491497206</v>
-      </c>
-      <c r="L66" t="n">
-        <v>6283506.803303098</v>
-      </c>
-      <c r="M66" t="n">
-        <v>6077865.937222365</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>806326.7260010514</v>
-      </c>
-      <c r="C67" t="n">
-        <v>491165.8626978606</v>
-      </c>
-      <c r="D67" t="n">
-        <v>662047.4936212657</v>
-      </c>
-      <c r="E67" t="n">
-        <v>358821.8056557306</v>
-      </c>
-      <c r="F67" t="n">
-        <v>426491.2198295472</v>
-      </c>
-      <c r="G67" t="n">
-        <v>497364.0329496543</v>
-      </c>
-      <c r="H67" t="n">
-        <v>405669.5869678805</v>
-      </c>
-      <c r="I67" t="n">
-        <v>761623.1280683146</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1202025.773722566</v>
-      </c>
-      <c r="K67" t="n">
-        <v>1266760.238780199</v>
-      </c>
-      <c r="L67" t="n">
-        <v>872516.8666557034</v>
-      </c>
-      <c r="M67" t="n">
-        <v>735449.3986596522</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>2855105.129516634</v>
-      </c>
-      <c r="C68" t="n">
-        <v>2959303.899245986</v>
-      </c>
-      <c r="D68" t="n">
-        <v>2890833.783995427</v>
-      </c>
-      <c r="E68" t="n">
-        <v>1616753.836153823</v>
-      </c>
-      <c r="F68" t="n">
-        <v>1834427.160350007</v>
-      </c>
-      <c r="G68" t="n">
-        <v>2132575.929307751</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1589149.036532098</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1568383.498737797</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1765431.408064088</v>
-      </c>
-      <c r="K68" t="n">
-        <v>2237011.284853833</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3738538.776475187</v>
-      </c>
-      <c r="M68" t="n">
-        <v>3283657.378087006</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>2919090.352252824</v>
-      </c>
-      <c r="C69" t="n">
-        <v>3081690.400337098</v>
-      </c>
-      <c r="D69" t="n">
-        <v>3159367.085058937</v>
-      </c>
-      <c r="E69" t="n">
-        <v>2215027.947631143</v>
-      </c>
-      <c r="F69" t="n">
-        <v>2063850.136318943</v>
-      </c>
-      <c r="G69" t="n">
-        <v>1959885.353627894</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1734072.088651036</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1947373.171247973</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1714038.212862247</v>
-      </c>
-      <c r="K69" t="n">
-        <v>3438210.299179087</v>
-      </c>
-      <c r="L69" t="n">
-        <v>2967612.980671233</v>
-      </c>
-      <c r="M69" t="n">
-        <v>3097258.275282797</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>7315560.999094084</v>
-      </c>
-      <c r="C70" t="n">
-        <v>1563130.278521013</v>
-      </c>
-      <c r="D70" t="n">
-        <v>4711539.744332461</v>
-      </c>
-      <c r="E70" t="n">
-        <v>7689885.513943183</v>
-      </c>
-      <c r="F70" t="n">
-        <v>8261551.100983173</v>
-      </c>
-      <c r="G70" t="n">
-        <v>10814714.42765228</v>
-      </c>
-      <c r="H70" t="n">
-        <v>8495076.335874638</v>
-      </c>
-      <c r="I70" t="n">
-        <v>14021624.53513079</v>
-      </c>
-      <c r="J70" t="n">
-        <v>8147933.128322357</v>
-      </c>
-      <c r="K70" t="n">
-        <v>12035508.98737109</v>
-      </c>
-      <c r="L70" t="n">
-        <v>12998102.17019599</v>
-      </c>
-      <c r="M70" t="n">
-        <v>12052853.76094711</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>19634469.19696753</v>
-      </c>
-      <c r="C71" t="n">
-        <v>21402722.52499926</v>
-      </c>
-      <c r="D71" t="n">
-        <v>23680231.13342544</v>
-      </c>
-      <c r="E71" t="n">
-        <v>23352640.58246932</v>
-      </c>
-      <c r="F71" t="n">
-        <v>27427192.47916384</v>
-      </c>
-      <c r="G71" t="n">
-        <v>49549236.28763708</v>
-      </c>
-      <c r="H71" t="n">
-        <v>5335394.92351951</v>
-      </c>
-      <c r="I71" t="n">
-        <v>30022860.85094082</v>
-      </c>
-      <c r="J71" t="n">
-        <v>31770801.00951435</v>
-      </c>
-      <c r="K71" t="n">
-        <v>27787709.22917284</v>
-      </c>
-      <c r="L71" t="n">
-        <v>26348500.37342449</v>
-      </c>
-      <c r="M71" t="n">
-        <v>29401423.05919086</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>3390857.926740491</v>
-      </c>
-      <c r="C72" t="n">
-        <v>2784488.34283624</v>
-      </c>
-      <c r="D72" t="n">
-        <v>3922928.786342185</v>
-      </c>
-      <c r="E72" t="n">
-        <v>2227365.849577349</v>
-      </c>
-      <c r="F72" t="n">
-        <v>4285925.831335807</v>
-      </c>
-      <c r="G72" t="n">
-        <v>2724808.100446997</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2462082.948480196</v>
-      </c>
-      <c r="I72" t="n">
-        <v>5028226.809791584</v>
-      </c>
-      <c r="J72" t="n">
-        <v>5690014.691891219</v>
-      </c>
-      <c r="K72" t="n">
-        <v>4341357.324807555</v>
-      </c>
-      <c r="L72" t="n">
-        <v>4837000.037405188</v>
-      </c>
-      <c r="M72" t="n">
-        <v>3284985.613020398</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>7788080.873650981</v>
-      </c>
-      <c r="C73" t="n">
-        <v>6722447.494983643</v>
-      </c>
-      <c r="D73" t="n">
-        <v>5518197.920851506</v>
-      </c>
-      <c r="E73" t="n">
-        <v>10113796.20282892</v>
-      </c>
-      <c r="F73" t="n">
-        <v>3983015.188680662</v>
-      </c>
-      <c r="G73" t="n">
-        <v>6856926.121972091</v>
-      </c>
-      <c r="H73" t="n">
-        <v>6430634.89473998</v>
-      </c>
-      <c r="I73" t="n">
-        <v>15880088.96206014</v>
-      </c>
-      <c r="J73" t="n">
-        <v>22611796.58542877</v>
-      </c>
-      <c r="K73" t="n">
-        <v>15210797.50427564</v>
-      </c>
-      <c r="L73" t="n">
-        <v>9720981.093325809</v>
-      </c>
-      <c r="M73" t="n">
-        <v>9477093.979523439</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>19864103.83577277</v>
-      </c>
-      <c r="C74" t="n">
-        <v>16091593.37460475</v>
-      </c>
-      <c r="D74" t="n">
-        <v>19579730.6788157</v>
-      </c>
-      <c r="E74" t="n">
-        <v>19468152.27129463</v>
-      </c>
-      <c r="F74" t="n">
-        <v>21578972.30385721</v>
-      </c>
-      <c r="G74" t="n">
-        <v>28963635.88391615</v>
-      </c>
-      <c r="H74" t="n">
-        <v>14440854.56486543</v>
-      </c>
-      <c r="I74" t="n">
-        <v>21054194.99175572</v>
-      </c>
-      <c r="J74" t="n">
-        <v>25649214.91569362</v>
-      </c>
-      <c r="K74" t="n">
-        <v>23140486.20237106</v>
-      </c>
-      <c r="L74" t="n">
-        <v>20361827.37788189</v>
-      </c>
-      <c r="M74" t="n">
-        <v>22230069.22505148</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>21388418.47050129</v>
-      </c>
-      <c r="C75" t="n">
-        <v>22738715.27682516</v>
-      </c>
-      <c r="D75" t="n">
-        <v>19474530.18542906</v>
-      </c>
-      <c r="E75" t="n">
-        <v>19911573.42574483</v>
-      </c>
-      <c r="F75" t="n">
-        <v>20460252.56140194</v>
-      </c>
-      <c r="G75" t="n">
-        <v>33386968.52782612</v>
-      </c>
-      <c r="H75" t="n">
-        <v>16491524.96582254</v>
-      </c>
-      <c r="I75" t="n">
-        <v>24292009.90971507</v>
-      </c>
-      <c r="J75" t="n">
-        <v>25044666.5883923</v>
-      </c>
-      <c r="K75" t="n">
-        <v>30612008.5368052</v>
-      </c>
-      <c r="L75" t="n">
-        <v>31572575.89026393</v>
-      </c>
-      <c r="M75" t="n">
-        <v>39186381.70431212</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>9544021.726532869</v>
-      </c>
-      <c r="C76" t="n">
-        <v>8375621.532531886</v>
-      </c>
-      <c r="D76" t="n">
-        <v>8826849.164503805</v>
-      </c>
-      <c r="E76" t="n">
-        <v>10061783.23969257</v>
-      </c>
-      <c r="F76" t="n">
-        <v>8623913.167057833</v>
-      </c>
-      <c r="G76" t="n">
-        <v>10004816.13746066</v>
-      </c>
-      <c r="H76" t="n">
-        <v>492975929.0508734</v>
-      </c>
-      <c r="I76" t="n">
-        <v>18079131.57271557</v>
-      </c>
-      <c r="J76" t="n">
-        <v>22768356.04522381</v>
-      </c>
-      <c r="K76" t="n">
-        <v>22291375.83605359</v>
-      </c>
-      <c r="L76" t="n">
-        <v>16688345.08857832</v>
-      </c>
-      <c r="M76" t="n">
-        <v>19012324.3331891</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>26741272.13034827</v>
-      </c>
-      <c r="C77" t="n">
-        <v>33612003.66419528</v>
-      </c>
-      <c r="D77" t="n">
-        <v>47937410.8502385</v>
-      </c>
-      <c r="E77" t="n">
-        <v>64783635.41358858</v>
-      </c>
-      <c r="F77" t="n">
-        <v>1969267404.321495</v>
-      </c>
-      <c r="G77" t="n">
-        <v>144896585.6616602</v>
-      </c>
-      <c r="H77" t="n">
-        <v>68566110.38397557</v>
-      </c>
-      <c r="I77" t="n">
-        <v>75009840.80509055</v>
-      </c>
-      <c r="J77" t="n">
-        <v>83081739.07144408</v>
-      </c>
-      <c r="K77" t="n">
-        <v>96489453.46868545</v>
-      </c>
-      <c r="L77" t="n">
-        <v>64126043.90144797</v>
-      </c>
-      <c r="M77" t="n">
-        <v>71647501.28298022</v>
+        <v>2933349.619364302</v>
       </c>
     </row>
   </sheetData>
